--- a/data/trans_bre/IP1003-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP1003-Edad-trans_bre.xlsx
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,92</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-35,35%</t>
+          <t>35,06%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,05%</t>
+          <t>-22,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-30,46%</t>
+          <t>8,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-27,23%</t>
+          <t>-29,4%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 0,26</t>
+          <t>-1,9; 6,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 3,58</t>
+          <t>-5,74; 2,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 1,42</t>
+          <t>-2,87; 3,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 0,89</t>
+          <t>-6,23; 1,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-62,26; 3,98</t>
+          <t>-22,16; 131,38</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,54; 66,71</t>
+          <t>-63,44; 41,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-63,23; 25,91</t>
+          <t>-42,88; 113,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-53,58; 9,45</t>
+          <t>-68,94; 54,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>35,06%</t>
+          <t>-35,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-22,93%</t>
+          <t>-4,05%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>-30,46%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-29,4%</t>
+          <t>-27,23%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 6,71</t>
+          <t>-7,43; 0,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 2,08</t>
+          <t>-3,84; 3,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 3,95</t>
+          <t>-6,28; 1,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 1,99</t>
+          <t>-6,87; 0,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,16; 131,38</t>
+          <t>-62,26; 3,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-63,44; 41,93</t>
+          <t>-42,54; 66,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-42,88; 113,61</t>
+          <t>-63,23; 25,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-68,94; 54,31</t>
+          <t>-53,58; 9,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP1003-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP1003-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-1,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-33,72%</t>
+          <t>-41,25%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-62,11%</t>
+          <t>-64,78%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>30,16%</t>
+          <t>29,58%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-72,23%</t>
+          <t>-45,17%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 1,38</t>
+          <t>-4,66; 1,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,98; -0,18</t>
+          <t>-3,3; 0,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 3,01</t>
+          <t>-1,64; 2,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,32; -0,08</t>
+          <t>-3,73; 1,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-78,67; 89,04</t>
+          <t>-100,0; 309,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-90,08; 9,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-68,54; 574,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 136,34</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,06%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-22,93%</t>
+          <t>-30,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>-29,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-29,4%</t>
+          <t>-27,52%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 6,71</t>
+          <t>-2,88; 4,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 2,08</t>
+          <t>-4,95; 1,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 3,95</t>
+          <t>-4,57; 1,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 1,99</t>
+          <t>-5,49; 2,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,16; 131,38</t>
+          <t>-40,38; 97,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-63,44; 41,93</t>
+          <t>-64,46; 35,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,88; 113,61</t>
+          <t>-70,61; 65,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-68,94; 54,31</t>
+          <t>-75,85; 69,64</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-2,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,92</t>
+          <t>-2,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-35,35%</t>
+          <t>-2,33%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,05%</t>
+          <t>-31,43%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-30,46%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-27,23%</t>
+          <t>-26,51%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 0,26</t>
+          <t>-5,39; 5,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 3,58</t>
+          <t>-8,13; 2,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 1,42</t>
+          <t>-3,61; 4,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 0,89</t>
+          <t>-7,18; 2,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-62,26; 3,98</t>
+          <t>-47,29; 89,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-42,54; 66,71</t>
+          <t>-67,15; 34,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-63,23; 25,91</t>
+          <t>-42,19; 112,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-53,58; 9,45</t>
+          <t>-64,67; 47,02</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-3,33</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-13,69%</t>
+          <t>-36,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-23,02%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-11,97%</t>
+          <t>-23,3%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-30,75%</t>
+          <t>-32,61%</t>
         </is>
       </c>
     </row>
@@ -968,48 +968,156 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 1,07</t>
+          <t>-7,76; 0,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 0,58</t>
+          <t>-4,08; 5,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 1,31</t>
+          <t>-6,48; 2,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,2; -0,1</t>
+          <t>-7,96; 0,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-38,7; 18,26</t>
+          <t>-67,01; 16,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-46,85; 13,7</t>
+          <t>-43,99; 108,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-42,83; 31,24</t>
+          <t>-64,63; 57,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,73; -0,26</t>
+          <t>-56,73; 12,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,95</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,41</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-2,52</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-13,69%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-23,02%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-11,97%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-30,75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-3,14; 1,18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,48; 0,35</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-2,46; 1,27</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-5,22; -0,02</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-39,07; 19,05</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-48,94; 6,74</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-40,21; 31,09</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-53,03; 0,55</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>

--- a/data/trans_bre/IP1003-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP1003-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,27 +668,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 1,86</t>
+          <t>-4,68; 1,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 0,54</t>
+          <t>-3,28; 0,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 2,33</t>
+          <t>-2,11; 2,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 1,14</t>
+          <t>-4,17; 1,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 309,08</t>
+          <t>-100,0; 182,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 4,09</t>
+          <t>-2,69; 4,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 1,39</t>
+          <t>-5,0; 1,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 1,82</t>
+          <t>-4,39; 1,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 2,0</t>
+          <t>-4,94; 2,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-40,38; 97,59</t>
+          <t>-37,4; 99,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,46; 35,0</t>
+          <t>-67,45; 39,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-70,61; 65,58</t>
+          <t>-70,98; 60,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-75,85; 69,64</t>
+          <t>-71,98; 82,3</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 5,56</t>
+          <t>-6,25; 4,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 2,15</t>
+          <t>-8,26; 2,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 4,86</t>
+          <t>-3,68; 5,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 2,56</t>
+          <t>-7,62; 2,51</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-47,29; 89,55</t>
+          <t>-54,52; 76,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-67,15; 34,41</t>
+          <t>-68,32; 46,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-42,19; 112,41</t>
+          <t>-40,84; 121,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-64,67; 47,02</t>
+          <t>-64,76; 46,74</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 0,96</t>
+          <t>-7,59; 1,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 5,4</t>
+          <t>-4,69; 4,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 2,37</t>
+          <t>-5,8; 3,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 0,93</t>
+          <t>-8,23; 0,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-67,01; 16,81</t>
+          <t>-65,07; 14,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,99; 108,95</t>
+          <t>-49,1; 99,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-64,63; 57,17</t>
+          <t>-61,1; 77,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-56,73; 12,59</t>
+          <t>-56,93; 12,56</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 1,18</t>
+          <t>-3,32; 1,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 0,35</t>
+          <t>-3,34; 0,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 1,27</t>
+          <t>-2,44; 1,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,22; -0,02</t>
+          <t>-4,97; 0,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-39,07; 19,05</t>
+          <t>-40,34; 18,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-48,94; 6,74</t>
+          <t>-46,67; 12,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-40,21; 31,09</t>
+          <t>-39,39; 33,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-53,03; 0,55</t>
+          <t>-51,41; 1,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP1003-Edad-trans_bre.xlsx
+++ b/data/trans_bre/IP1003-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-45,17%</t>
+          <t>-43,23%</t>
         </is>
       </c>
     </row>
@@ -668,27 +668,27 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 1,73</t>
+          <t>-4,77; 1,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 0,6</t>
+          <t>-3,38; 0,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 2,22</t>
+          <t>-1,77; 2,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 1,16</t>
+          <t>-3,99; 1,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 182,92</t>
+          <t>-100,0; 272,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-27,52%</t>
+          <t>-32,65%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 4,25</t>
+          <t>-2,88; 4,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 1,41</t>
+          <t>-5,17; 1,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 1,7</t>
+          <t>-4,59; 1,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 2,27</t>
+          <t>-6,2; 2,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,4; 99,28</t>
+          <t>-39,18; 106,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-67,45; 39,43</t>
+          <t>-68,62; 35,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-70,98; 60,25</t>
+          <t>-71,32; 70,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-71,98; 82,3</t>
+          <t>-80,82; 83,81</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-26,51%</t>
+          <t>-29,67%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 4,88</t>
+          <t>-5,35; 5,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 2,5</t>
+          <t>-7,96; 2,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 5,32</t>
+          <t>-3,79; 5,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 2,51</t>
+          <t>-7,7; 2,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-54,52; 76,11</t>
+          <t>-45,82; 92,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-68,32; 46,49</t>
+          <t>-66,04; 40,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-40,84; 121,62</t>
+          <t>-41,94; 131,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-64,76; 46,74</t>
+          <t>-66,59; 36,18</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,78</t>
+          <t>-3,92</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-32,61%</t>
+          <t>-34,65%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 1,01</t>
+          <t>-7,74; 0,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 4,96</t>
+          <t>-4,09; 4,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 3,23</t>
+          <t>-5,93; 2,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 0,88</t>
+          <t>-9,43; 0,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-65,07; 14,82</t>
+          <t>-65,39; 14,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,1; 99,37</t>
+          <t>-44,09; 95,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-61,1; 77,86</t>
+          <t>-59,96; 55,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-56,93; 12,56</t>
+          <t>-63,64; 5,02</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>-2,73</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-30,75%</t>
+          <t>-33,09%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 1,08</t>
+          <t>-2,97; 1,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 0,63</t>
+          <t>-3,49; 0,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 1,35</t>
+          <t>-2,58; 1,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 0,02</t>
+          <t>-5,38; -0,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-40,34; 18,99</t>
+          <t>-38,7; 18,26</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-46,67; 12,99</t>
+          <t>-46,85; 13,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-39,39; 33,53</t>
+          <t>-42,83; 31,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-51,41; 1,42</t>
+          <t>-53,72; -3,9</t>
         </is>
       </c>
     </row>
